--- a/SemiSolo_vs_Solo_Ttest_RT_ActorSturn.xlsx
+++ b/SemiSolo_vs_Solo_Ttest_RT_ActorSturn.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="429">
   <si>
     <t>Stat</t>
   </si>
@@ -40,6 +40,1266 @@
   </si>
   <si>
     <t>Second</t>
+  </si>
+  <si>
+    <t>Stat</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t>Simul</t>
+  </si>
+  <si>
+    <t>Second</t>
+  </si>
+  <si>
+    <t>Stat</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t>Simul</t>
+  </si>
+  <si>
+    <t>Second</t>
+  </si>
+  <si>
+    <t>Stat</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>CI_lower</t>
+  </si>
+  <si>
+    <t>CI_upper</t>
+  </si>
+  <si>
+    <t>tstat</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>sd_min</t>
+  </si>
+  <si>
+    <t>sd_max</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t>Simul</t>
+  </si>
+  <si>
+    <t>Second</t>
+  </si>
+  <si>
+    <t>Stat</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>CI_lower</t>
+  </si>
+  <si>
+    <t>CI_upper</t>
+  </si>
+  <si>
+    <t>tstat</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>sd_min</t>
+  </si>
+  <si>
+    <t>sd_max</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.00000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.00000</t>
+  </si>
+  <si>
+    <t>-73.98015</t>
+  </si>
+  <si>
+    <t>-37.73537</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -6.08410</t>
+  </si>
+  <si>
+    <t>171.21876</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 66.75304</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 73.21732</t>
+  </si>
+  <si>
+    <t>Simul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.00000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.00000</t>
+  </si>
+  <si>
+    <t>-148.00242</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -87.01964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -7.63699</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 110.71866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  72.78514</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 101.09626</t>
+  </si>
+  <si>
+    <t>Second</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.00000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.00000</t>
+  </si>
+  <si>
+    <t>-72.00737</t>
+  </si>
+  <si>
+    <t>-29.57261</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -4.71603</t>
+  </si>
+  <si>
+    <t>235.05536</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 66.61250</t>
+  </si>
+  <si>
+    <t>101.81733</t>
+  </si>
+  <si>
+    <t>Stat</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>CI_lower</t>
+  </si>
+  <si>
+    <t>CI_upper</t>
+  </si>
+  <si>
+    <t>tstat</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>sd_min</t>
+  </si>
+  <si>
+    <t>sd_max</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.0000</t>
+  </si>
+  <si>
+    <t>-73.9802</t>
+  </si>
+  <si>
+    <t>-37.7354</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -6.0841</t>
+  </si>
+  <si>
+    <t>171.2188</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 66.7530</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 73.2173</t>
+  </si>
+  <si>
+    <t>Simul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.0000</t>
+  </si>
+  <si>
+    <t>-148.0024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -87.0196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -7.6370</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 110.7187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  72.7851</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 101.0963</t>
+  </si>
+  <si>
+    <t>Second</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.0000</t>
+  </si>
+  <si>
+    <t>-72.0074</t>
+  </si>
+  <si>
+    <t>-29.5726</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -4.7160</t>
+  </si>
+  <si>
+    <t>235.0554</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 66.6125</t>
+  </si>
+  <si>
+    <t>101.8173</t>
+  </si>
+  <si>
+    <t>Stat</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>CI_lower</t>
+  </si>
+  <si>
+    <t>CI_upper</t>
+  </si>
+  <si>
+    <t>tstat</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>sd_min</t>
+  </si>
+  <si>
+    <t>sd_max</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.0000</t>
+  </si>
+  <si>
+    <t>-73.9802</t>
+  </si>
+  <si>
+    <t>-37.7354</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -6.0841</t>
+  </si>
+  <si>
+    <t>171.2188</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 66.7530</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 73.2173</t>
+  </si>
+  <si>
+    <t>Simul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.0000</t>
+  </si>
+  <si>
+    <t>-148.0024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -87.0196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -7.6370</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 110.7187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  72.7851</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 101.0963</t>
+  </si>
+  <si>
+    <t>Second</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.0000</t>
+  </si>
+  <si>
+    <t>-72.0074</t>
+  </si>
+  <si>
+    <t>-29.5726</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -4.7160</t>
+  </si>
+  <si>
+    <t>235.0554</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 66.6125</t>
+  </si>
+  <si>
+    <t>101.8173</t>
+  </si>
+  <si>
+    <t>Stat</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>CI_lower</t>
+  </si>
+  <si>
+    <t>CI_upper</t>
+  </si>
+  <si>
+    <t>tstat</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>sd_min</t>
+  </si>
+  <si>
+    <t>sd_max</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.0000</t>
+  </si>
+  <si>
+    <t>-73.9802</t>
+  </si>
+  <si>
+    <t>-37.7354</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -6.0841</t>
+  </si>
+  <si>
+    <t>171.2188</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 66.7530</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 73.2173</t>
+  </si>
+  <si>
+    <t>Simul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.0000</t>
+  </si>
+  <si>
+    <t>-148.0024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -87.0196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -7.6370</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 110.7187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  72.7851</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 101.0963</t>
+  </si>
+  <si>
+    <t>Second</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.0000</t>
+  </si>
+  <si>
+    <t>-72.0074</t>
+  </si>
+  <si>
+    <t>-29.5726</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -4.7160</t>
+  </si>
+  <si>
+    <t>235.0554</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 66.6125</t>
+  </si>
+  <si>
+    <t>101.8173</t>
+  </si>
+  <si>
+    <t>Stat</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>CI_lower</t>
+  </si>
+  <si>
+    <t>CI_upper</t>
+  </si>
+  <si>
+    <t>tstat</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>sd_min</t>
+  </si>
+  <si>
+    <t>sd_max</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.0000</t>
+  </si>
+  <si>
+    <t>-73.9802</t>
+  </si>
+  <si>
+    <t>-37.7354</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -6.0841</t>
+  </si>
+  <si>
+    <t>171.2188</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 66.7530</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 73.2173</t>
+  </si>
+  <si>
+    <t>Simul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.0000</t>
+  </si>
+  <si>
+    <t>-148.0024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -87.0196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -7.6370</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 110.7187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  72.7851</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 101.0963</t>
+  </si>
+  <si>
+    <t>Second</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.0000</t>
+  </si>
+  <si>
+    <t>-72.0074</t>
+  </si>
+  <si>
+    <t>-29.5726</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -4.7160</t>
+  </si>
+  <si>
+    <t>235.0554</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 66.6125</t>
+  </si>
+  <si>
+    <t>101.8173</t>
+  </si>
+  <si>
+    <t>Stat</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>CI_lower</t>
+  </si>
+  <si>
+    <t>CI_upper</t>
+  </si>
+  <si>
+    <t>tstat</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>sd_min</t>
+  </si>
+  <si>
+    <t>sd_max</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.000</t>
+  </si>
+  <si>
+    <t>-73.980</t>
+  </si>
+  <si>
+    <t>-37.735</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -6.084</t>
+  </si>
+  <si>
+    <t>171.219</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 66.753</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 73.217</t>
+  </si>
+  <si>
+    <t>Simul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.000</t>
+  </si>
+  <si>
+    <t>-148.002</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -87.020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -7.637</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 110.719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  72.785</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 101.096</t>
+  </si>
+  <si>
+    <t>Second</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.000</t>
+  </si>
+  <si>
+    <t>-72.007</t>
+  </si>
+  <si>
+    <t>-29.573</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -4.716</t>
+  </si>
+  <si>
+    <t>235.055</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 66.612</t>
+  </si>
+  <si>
+    <t>101.817</t>
+  </si>
+  <si>
+    <t>Stat</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>CI_lower</t>
+  </si>
+  <si>
+    <t>CI_upper</t>
+  </si>
+  <si>
+    <t>tstat</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>sd_min</t>
+  </si>
+  <si>
+    <t>sd_max</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.000</t>
+  </si>
+  <si>
+    <t>-73.980</t>
+  </si>
+  <si>
+    <t>-37.735</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -6.084</t>
+  </si>
+  <si>
+    <t>171.219</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 66.753</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 73.217</t>
+  </si>
+  <si>
+    <t>Simul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.000</t>
+  </si>
+  <si>
+    <t>-148.002</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -87.020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -7.637</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 110.719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  72.785</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 101.096</t>
+  </si>
+  <si>
+    <t>Second</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.000</t>
+  </si>
+  <si>
+    <t>-72.007</t>
+  </si>
+  <si>
+    <t>-29.573</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -4.716</t>
+  </si>
+  <si>
+    <t>235.055</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 66.612</t>
+  </si>
+  <si>
+    <t>101.817</t>
+  </si>
+  <si>
+    <t>Stat</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>CI_lower</t>
+  </si>
+  <si>
+    <t>CI_upper</t>
+  </si>
+  <si>
+    <t>tstat</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>sd_min</t>
+  </si>
+  <si>
+    <t>sd_max</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.000</t>
+  </si>
+  <si>
+    <t>-73.980</t>
+  </si>
+  <si>
+    <t>-37.735</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -6.084</t>
+  </si>
+  <si>
+    <t>171.219</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 66.753</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 73.217</t>
+  </si>
+  <si>
+    <t>Simul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.000</t>
+  </si>
+  <si>
+    <t>-148.002</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -87.020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -7.637</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 110.719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  72.785</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 101.096</t>
+  </si>
+  <si>
+    <t>Second</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.000</t>
+  </si>
+  <si>
+    <t>-72.007</t>
+  </si>
+  <si>
+    <t>-29.573</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -4.716</t>
+  </si>
+  <si>
+    <t>235.055</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 66.612</t>
+  </si>
+  <si>
+    <t>101.817</t>
+  </si>
+  <si>
+    <t>Stat</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>CI_lower</t>
+  </si>
+  <si>
+    <t>CI_upper</t>
+  </si>
+  <si>
+    <t>tstat</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>sd_min</t>
+  </si>
+  <si>
+    <t>sd_max</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.000</t>
+  </si>
+  <si>
+    <t>-73.980</t>
+  </si>
+  <si>
+    <t>-37.735</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -6.084</t>
+  </si>
+  <si>
+    <t>171.219</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 66.753</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 73.217</t>
+  </si>
+  <si>
+    <t>Simul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.000</t>
+  </si>
+  <si>
+    <t>-148.002</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -87.020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -7.637</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 110.719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  72.785</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 101.096</t>
+  </si>
+  <si>
+    <t>Second</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.000</t>
+  </si>
+  <si>
+    <t>-72.007</t>
+  </si>
+  <si>
+    <t>-29.573</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -4.716</t>
+  </si>
+  <si>
+    <t>235.055</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 66.612</t>
+  </si>
+  <si>
+    <t>101.817</t>
+  </si>
+  <si>
+    <t>Stat</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>CI_lower</t>
+  </si>
+  <si>
+    <t>CI_upper</t>
+  </si>
+  <si>
+    <t>tstat</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>sd_min</t>
+  </si>
+  <si>
+    <t>sd_max</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.000</t>
+  </si>
+  <si>
+    <t>-73.980</t>
+  </si>
+  <si>
+    <t>-37.735</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -6.084</t>
+  </si>
+  <si>
+    <t>171.219</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 66.753</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 73.217</t>
+  </si>
+  <si>
+    <t>Simul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.000</t>
+  </si>
+  <si>
+    <t>-148.002</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -87.020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -7.637</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 110.719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  72.785</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 101.096</t>
+  </si>
+  <si>
+    <t>Second</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.000</t>
+  </si>
+  <si>
+    <t>-72.007</t>
+  </si>
+  <si>
+    <t>-29.573</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -4.716</t>
+  </si>
+  <si>
+    <t>235.055</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 66.612</t>
+  </si>
+  <si>
+    <t>101.817</t>
+  </si>
+  <si>
+    <t>Stat</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>CI_lower</t>
+  </si>
+  <si>
+    <t>CI_upper</t>
+  </si>
+  <si>
+    <t>tstat</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>sd_min</t>
+  </si>
+  <si>
+    <t>sd_max</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.000</t>
+  </si>
+  <si>
+    <t>-73.980</t>
+  </si>
+  <si>
+    <t>-37.735</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -6.084</t>
+  </si>
+  <si>
+    <t>171.219</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 66.753</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 73.217</t>
+  </si>
+  <si>
+    <t>Simul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.000</t>
+  </si>
+  <si>
+    <t>-148.002</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -87.020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -7.637</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 110.719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  72.785</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 101.096</t>
+  </si>
+  <si>
+    <t>Second</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.000</t>
+  </si>
+  <si>
+    <t>-72.007</t>
+  </si>
+  <si>
+    <t>-29.573</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -4.716</t>
+  </si>
+  <si>
+    <t>235.055</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 66.612</t>
+  </si>
+  <si>
+    <t>101.817</t>
   </si>
 </sst>
 </file>
@@ -85,55 +1345,139 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D9"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.37890625" customWidth="true"/>
-    <col min="2" max="2" width="4.6015625" customWidth="true"/>
-    <col min="3" max="3" width="5.48828125" customWidth="true"/>
-    <col min="4" max="4" width="7.046875" customWidth="true"/>
+    <col min="1" max="1" width="8.48828125" customWidth="true"/>
+    <col min="2" max="2" width="7.7109375" customWidth="true"/>
+    <col min="3" max="3" width="8.37890625" customWidth="true"/>
+    <col min="4" max="4" width="7.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>3</v>
+        <v>393</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>6</v>
+        <v>402</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>7</v>
+        <v>411</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>8</v>
+        <v>420</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="0">
-        <v>1</v>
-      </c>
-      <c r="C2" s="0">
-        <v>1</v>
-      </c>
-      <c r="D2" s="0">
-        <v>1</v>
+        <v>394</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="0">
-        <v>0</v>
-      </c>
-      <c r="C3" s="0">
-        <v>0</v>
-      </c>
-      <c r="D3" s="0">
-        <v>0</v>
+        <v>395</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>428</v>
       </c>
     </row>
   </sheetData>
